--- a/Document/Player Action.xlsx
+++ b/Document/Player Action.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>Player</t>
   </si>
   <si>
-    <t>Enemy</t>
-  </si>
-  <si>
     <t>Defence</t>
   </si>
   <si>
@@ -44,92 +41,113 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Heal All</t>
-  </si>
-  <si>
-    <t>Lighting Attack</t>
-  </si>
-  <si>
-    <t>Runaway</t>
-  </si>
-  <si>
     <t>HealAll</t>
   </si>
   <si>
     <t>Defence Boost</t>
   </si>
   <si>
-    <t>Defence Boost All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack Boost </t>
-  </si>
-  <si>
-    <t>Attack Boost All</t>
-  </si>
-  <si>
     <t>Revive</t>
   </si>
   <si>
-    <t>Defence All Boost</t>
-  </si>
-  <si>
     <t>Attack Boost</t>
   </si>
   <si>
-    <t>Attack All Boost</t>
-  </si>
-  <si>
-    <t>LightBoom</t>
-  </si>
-  <si>
-    <t>FireBall</t>
-  </si>
-  <si>
-    <t>Inferno</t>
-  </si>
-  <si>
-    <t>QuickEnd</t>
-  </si>
-  <si>
     <t>Earthquake</t>
   </si>
   <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>FireBlast</t>
-  </si>
-  <si>
-    <t>HeavelyWorth</t>
-  </si>
-  <si>
     <t>Wind</t>
   </si>
   <si>
     <t>Strom</t>
   </si>
   <si>
-    <t>Thunderstrom</t>
-  </si>
-  <si>
-    <t>(player Attack power*player Attack Power)/(Player Attack Power+ Enemy Defence Power)</t>
-  </si>
-  <si>
     <t>Protect</t>
+  </si>
+  <si>
+    <t>INDRA</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Action On Enemy</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Lightining Attack</t>
+  </si>
+  <si>
+    <t>SACHI</t>
+  </si>
+  <si>
+    <t>Agni</t>
+  </si>
+  <si>
+    <t>VAYU</t>
+  </si>
+  <si>
+    <t>PRITHVI</t>
+  </si>
+  <si>
+    <t>Quick end</t>
+  </si>
+  <si>
+    <t>DYAUS</t>
+  </si>
+  <si>
+    <t>Heavenly Worth</t>
+  </si>
+  <si>
+    <t>Fire Blast</t>
+  </si>
+  <si>
+    <t>Fire Ball</t>
+  </si>
+  <si>
+    <t>ENEMY</t>
+  </si>
+  <si>
+    <t>ATTACK</t>
+  </si>
+  <si>
+    <t>LIGHTENING ATTACK</t>
+  </si>
+  <si>
+    <t>THUNDER STROM</t>
+  </si>
+  <si>
+    <t>LIGHT BOOM</t>
+  </si>
+  <si>
+    <t>AIR ATTACK</t>
+  </si>
+  <si>
+    <t>FIRE BALL</t>
+  </si>
+  <si>
+    <t>INFERNO</t>
+  </si>
+  <si>
+    <t>QUICK END</t>
+  </si>
+  <si>
+    <t>EARTHQUAKE</t>
+  </si>
+  <si>
+    <t>ALL HERO</t>
+  </si>
+  <si>
+    <t>Thunder Strom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +164,13 @@
     </font>
     <font>
       <sz val="18"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -187,12 +212,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Linked Cell" xfId="1" builtinId="24"/>
@@ -474,17 +500,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="81.28515625" customWidth="1"/>
-    <col min="3" max="3" width="77" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -492,173 +518,240 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="8" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>29</v>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Player Action.xlsx
+++ b/Document/Player Action.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="80">
   <si>
     <t>Player</t>
   </si>
@@ -74,33 +74,21 @@
     <t>Action On Enemy</t>
   </si>
   <si>
-    <t>Run</t>
-  </si>
-  <si>
     <t>Lightining Attack</t>
   </si>
   <si>
     <t>SACHI</t>
   </si>
   <si>
-    <t>Agni</t>
-  </si>
-  <si>
     <t>VAYU</t>
   </si>
   <si>
     <t>PRITHVI</t>
   </si>
   <si>
-    <t>Quick end</t>
-  </si>
-  <si>
     <t>DYAUS</t>
   </si>
   <si>
-    <t>Heavenly Worth</t>
-  </si>
-  <si>
     <t>Fire Blast</t>
   </si>
   <si>
@@ -141,6 +129,141 @@
   </si>
   <si>
     <t>Thunder Strom</t>
+  </si>
+  <si>
+    <t>Defend</t>
+  </si>
+  <si>
+    <t>plus 10 Def</t>
+  </si>
+  <si>
+    <t>Run Away</t>
+  </si>
+  <si>
+    <t>Defence Boost all</t>
+  </si>
+  <si>
+    <t>Heavenly Warth</t>
+  </si>
+  <si>
+    <t>Quick Sand</t>
+  </si>
+  <si>
+    <t>Agni (Anger)</t>
+  </si>
+  <si>
+    <t>Agni (Calm)</t>
+  </si>
+  <si>
+    <t>Attack Boost all</t>
+  </si>
+  <si>
+    <t>Sp Cost</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Heal all</t>
+  </si>
+  <si>
+    <t>plus 5 Def</t>
+  </si>
+  <si>
+    <t>protect all allies against attacks</t>
+  </si>
+  <si>
+    <t>Vary</t>
+  </si>
+  <si>
+    <t>50% - 50% success chance</t>
+  </si>
+  <si>
+    <t>one ally only</t>
+  </si>
+  <si>
+    <t>all allies</t>
+  </si>
+  <si>
+    <t>Until Next Round Self</t>
+  </si>
+  <si>
+    <t>Revive one dead hero</t>
+  </si>
+  <si>
+    <t>end battle with no result</t>
+  </si>
+  <si>
+    <t>Attk *1 Variation 20%</t>
+  </si>
+  <si>
+    <t>Attk *.8 Variation 20%</t>
+  </si>
+  <si>
+    <t>plus attk 20</t>
+  </si>
+  <si>
+    <t>plus def 20</t>
+  </si>
+  <si>
+    <t>Attk *1.5 Variation 50%</t>
+  </si>
+  <si>
+    <t>Heal full hp</t>
+  </si>
+  <si>
+    <t>one enemy</t>
+  </si>
+  <si>
+    <t>All Enemy</t>
+  </si>
+  <si>
+    <t>One enemy</t>
+  </si>
+  <si>
+    <t>All enemy</t>
+  </si>
+  <si>
+    <t>Random 3 Enemy</t>
+  </si>
+  <si>
+    <t>one Row of enemy</t>
+  </si>
+  <si>
+    <t>Front collum of enemy</t>
+  </si>
+  <si>
+    <t>Stun 1 turn</t>
+  </si>
+  <si>
+    <t>Decrease Speed By 20% 2 turns</t>
+  </si>
+  <si>
+    <t>50% - 50% chance</t>
+  </si>
+  <si>
+    <t>Attack *1.5 Variation 20%</t>
+  </si>
+  <si>
+    <t>Attack *.9 Variation 20%</t>
+  </si>
+  <si>
+    <t>Attack *.8 Variation 20%</t>
+  </si>
+  <si>
+    <t>Burn 2 turns Burn = Attack *20%</t>
+  </si>
+  <si>
+    <t>Attack *.75 Variation 20%</t>
+  </si>
+  <si>
+    <t>Attack *1 Variation 20%</t>
+  </si>
+  <si>
+    <t>Attack *1.25 Variation 20%</t>
+  </si>
+  <si>
+    <t>4* atk -2*Def</t>
   </si>
 </sst>
 </file>
@@ -177,7 +300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +310,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -212,13 +341,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Linked Cell" xfId="1" builtinId="24"/>
@@ -500,20 +633,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,237 +661,643 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21">
+        <v>60</v>
+      </c>
+      <c r="I21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24">
+        <v>70</v>
+      </c>
+      <c r="I24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
+      <c r="F32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="F33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>29</v>
       </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="F34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>30</v>
       </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="F35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>32</v>
       </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="F37" t="s">
         <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Player Action.xlsx
+++ b/Document/Player Action.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="81">
   <si>
     <t>Player</t>
   </si>
@@ -264,13 +264,16 @@
   </si>
   <si>
     <t>4* atk -2*Def</t>
+  </si>
+  <si>
+    <t>AGNI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,8 +302,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,7 +325,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,17 +388,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Linked Cell" xfId="1" builtinId="24"/>
@@ -633,27 +701,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,562 +738,582 @@
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="K2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>50</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="K5" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="11">
         <v>50</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="11">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="11">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:11" s="16" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="K9" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="16">
         <v>20</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F11" t="s">
+    <row r="11" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="16">
         <v>50</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:11" s="14" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="K12" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="14" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="14" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="14">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="15" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="14">
         <v>40</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:11" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="K16" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="9">
         <v>30</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="9">
         <v>10</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:11" s="18" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="18">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="20" spans="1:11" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" s="18">
+        <v>0</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="18">
         <v>30</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="21" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="18">
         <v>10</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="18">
         <v>60</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    <row r="22" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="18">
         <v>40</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:11" s="20" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" s="20">
+        <v>0</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="H23" s="20">
+        <v>0</v>
+      </c>
+      <c r="I23" s="20" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="K23" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="20" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="20">
+        <v>0</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="20">
         <v>70</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+    <row r="25" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="20">
         <v>40</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+    <row r="26" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="20">
         <v>80</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -1236,7 +1324,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -1244,7 +1332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>26</v>
       </c>
@@ -1252,7 +1340,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>27</v>
       </c>
@@ -1260,7 +1348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -1268,7 +1356,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>29</v>
       </c>
@@ -1276,7 +1364,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -1284,7 +1372,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>31</v>
       </c>
@@ -1292,7 +1380,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>32</v>
       </c>

--- a/Document/Player Action.xlsx
+++ b/Document/Player Action.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
   <si>
     <t>Player</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Earthquake</t>
   </si>
   <si>
-    <t>Wind</t>
-  </si>
-  <si>
     <t>Strom</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>Agni (Calm)</t>
   </si>
   <si>
-    <t>Attack Boost all</t>
-  </si>
-  <si>
     <t>Sp Cost</t>
   </si>
   <si>
@@ -227,9 +221,6 @@
     <t>Random 3 Enemy</t>
   </si>
   <si>
-    <t>one Row of enemy</t>
-  </si>
-  <si>
     <t>Front collum of enemy</t>
   </si>
   <si>
@@ -257,9 +248,6 @@
     <t>Attack *.75 Variation 20%</t>
   </si>
   <si>
-    <t>Attack *1 Variation 20%</t>
-  </si>
-  <si>
     <t>Attack *1.25 Variation 20%</t>
   </si>
   <si>
@@ -267,6 +255,18 @@
   </si>
   <si>
     <t>AGNI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>Attack *1  Variation 20%</t>
+  </si>
+  <si>
+    <t>on row of enemy</t>
   </si>
 </sst>
 </file>
@@ -704,7 +704,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,141 +726,141 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
+      <c r="D3" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H3" s="5">
         <v>20</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H4" s="5">
         <v>50</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" s="11" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="D5" s="11">
         <v>0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H5" s="11">
         <v>0</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -871,22 +871,22 @@
         <v>0</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H6" s="11">
         <v>50</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -894,16 +894,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="11">
         <v>20</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -911,45 +911,45 @@
         <v>5</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="11">
         <v>50</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="16" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" s="16">
         <v>0</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H9" s="16">
         <v>0</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -960,71 +960,71 @@
         <v>0</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H10" s="16">
         <v>20</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F11" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H11" s="16">
         <v>50</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="14" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="D12" s="14">
         <v>0</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H12" s="14">
         <v>0</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="14" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1035,7 +1035,19 @@
         <v>0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="14">
+        <v>30</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1043,59 +1055,59 @@
         <v>8</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="14">
         <v>10</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="14">
         <v>40</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="D16" s="9">
         <v>0</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H16" s="9">
         <v>0</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1106,62 +1118,77 @@
         <v>0</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H17" s="9">
         <v>30</v>
       </c>
       <c r="I17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="9">
         <v>10</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="9">
+        <v>60</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="18" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>36</v>
-      </c>
       <c r="D19" s="18">
         <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H19" s="18">
         <v>0</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1172,22 +1199,22 @@
         <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H20" s="18">
         <v>30</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -1195,71 +1222,71 @@
         <v>6</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="18">
         <v>10</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>9</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H21" s="18">
         <v>60</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" s="18">
         <v>40</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="20" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="20">
         <v>0</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H23" s="20">
         <v>0</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="20" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1270,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H24" s="20">
         <v>70</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -1290,102 +1317,102 @@
         <v>7</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" s="20">
         <v>40</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D26" s="20">
         <v>80</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" t="s">
         <v>32</v>
-      </c>
-      <c r="F37" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Player Action.xlsx
+++ b/Document/Player Action.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
   <si>
     <t>Player</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>on row of enemy</t>
+  </si>
+  <si>
+    <t>Vayu</t>
+  </si>
+  <si>
+    <t>Prithvi</t>
   </si>
 </sst>
 </file>
@@ -703,25 +709,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +751,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -777,7 +783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
@@ -794,7 +800,7 @@
         <v>69</v>
       </c>
       <c r="H3" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>60</v>
@@ -804,7 +810,7 @@
       </c>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
@@ -824,14 +830,14 @@
         <v>70</v>
       </c>
       <c r="H4" s="5">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>61</v>
       </c>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -863,7 +869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="11" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
@@ -880,7 +886,7 @@
         <v>71</v>
       </c>
       <c r="H6" s="11">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>61</v>
@@ -889,7 +895,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
@@ -897,7 +903,7 @@
         <v>54</v>
       </c>
       <c r="D7" s="11">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>49</v>
@@ -906,7 +912,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
@@ -914,13 +920,13 @@
         <v>55</v>
       </c>
       <c r="D8" s="11">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="16" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" s="16" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="15" t="s">
         <v>40</v>
       </c>
@@ -952,7 +958,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="16" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" s="16" t="s">
         <v>4</v>
       </c>
@@ -969,7 +975,7 @@
         <v>73</v>
       </c>
       <c r="H10" s="16">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>64</v>
@@ -978,7 +984,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F11" s="16" t="s">
         <v>20</v>
       </c>
@@ -986,7 +992,7 @@
         <v>73</v>
       </c>
       <c r="H11" s="16">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>61</v>
@@ -995,7 +1001,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="14" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" s="14" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13" t="s">
         <v>41</v>
       </c>
@@ -1024,10 +1030,10 @@
         <v>62</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="14" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
@@ -1037,20 +1043,8 @@
       <c r="E13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="14">
-        <v>30</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
@@ -1058,13 +1052,13 @@
         <v>56</v>
       </c>
       <c r="D14" s="14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>6</v>
       </c>
@@ -1072,13 +1066,13 @@
         <v>56</v>
       </c>
       <c r="D15" s="14">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
@@ -1107,10 +1101,10 @@
         <v>62</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>4</v>
       </c>
@@ -1121,22 +1115,19 @@
         <v>47</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H17" s="9">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
@@ -1144,25 +1135,13 @@
         <v>45</v>
       </c>
       <c r="D18" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="9">
-        <v>60</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="18" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:11" s="18" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="17" t="s">
         <v>18</v>
       </c>
@@ -1190,8 +1169,11 @@
       <c r="I19" s="18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="18" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
         <v>4</v>
       </c>
@@ -1208,7 +1190,7 @@
         <v>73</v>
       </c>
       <c r="H20" s="18">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>65</v>
@@ -1217,7 +1199,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
         <v>6</v>
       </c>
@@ -1225,7 +1207,7 @@
         <v>57</v>
       </c>
       <c r="D21" s="18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>49</v>
@@ -1237,13 +1219,13 @@
         <v>74</v>
       </c>
       <c r="H21" s="18">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
         <v>37</v>
       </c>
@@ -1251,13 +1233,13 @@
         <v>57</v>
       </c>
       <c r="D22" s="18">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="20" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" s="20" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="19" t="s">
         <v>19</v>
       </c>
@@ -1289,7 +1271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="20" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="20" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B24" s="20" t="s">
         <v>4</v>
       </c>
@@ -1306,13 +1288,13 @@
         <v>74</v>
       </c>
       <c r="H24" s="20">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="s">
         <v>7</v>
       </c>
@@ -1320,13 +1302,13 @@
         <v>59</v>
       </c>
       <c r="D25" s="20">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="20" t="s">
         <v>44</v>
       </c>
@@ -1334,13 +1316,13 @@
         <v>58</v>
       </c>
       <c r="D26" s="20">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -1351,7 +1333,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>24</v>
       </c>
@@ -1359,7 +1341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>25</v>
       </c>
@@ -1367,7 +1349,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>26</v>
       </c>
@@ -1375,7 +1357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>27</v>
       </c>
@@ -1383,7 +1365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>28</v>
       </c>
@@ -1391,7 +1373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>29</v>
       </c>
@@ -1399,7 +1381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -1407,7 +1389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>31</v>
       </c>

--- a/Document/Player Action.xlsx
+++ b/Document/Player Action.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,16 +302,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <sz val="18"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -394,38 +408,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Linked Cell" xfId="1" builtinId="24"/>
@@ -710,25 +735,25 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -744,586 +769,604 @@
       <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>4</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="10" t="s">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="11" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="7">
         <v>2</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="7">
         <v>4</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="16" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:11" s="10" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="16">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16" t="s">
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="16" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="1:11" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="10">
         <v>2</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F11" s="16" t="s">
+    <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="F11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="10">
         <v>4</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="14" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:11" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="14">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14" t="s">
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="1:11" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="9">
         <v>3</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:11" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9" t="s">
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="1:11" s="6" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="6">
         <v>2</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="18" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:11" s="11" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="18">
-        <v>0</v>
-      </c>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="18">
-        <v>0</v>
-      </c>
-      <c r="I19" s="18" t="s">
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="18" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="18" t="s">
+    <row r="20" spans="1:11" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="18">
-        <v>0</v>
-      </c>
-      <c r="E20" s="18" t="s">
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="11">
         <v>1</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="18" t="s">
+    <row r="21" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="11">
         <v>1</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="11">
         <v>5</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="18" t="s">
+    <row r="22" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="11">
         <v>3</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="20" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="20">
-        <v>0</v>
-      </c>
-      <c r="E23" s="20" t="s">
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="20">
-        <v>0</v>
-      </c>
-      <c r="I23" s="20" t="s">
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="20" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="20" t="s">
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="20">
-        <v>0</v>
-      </c>
-      <c r="E24" s="20" t="s">
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="12">
         <v>5</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="20" t="s">
+    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="12">
         <v>2</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="20" t="s">
+    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="12">
         <v>4</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="28" t="s">
         <v>22</v>
       </c>
       <c r="B29" t="s">
@@ -1333,7 +1376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>24</v>
       </c>
@@ -1341,7 +1384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>25</v>
       </c>
@@ -1349,7 +1392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>26</v>
       </c>
@@ -1357,7 +1400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>27</v>
       </c>
@@ -1365,7 +1408,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>28</v>
       </c>
@@ -1373,7 +1416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>29</v>
       </c>
@@ -1381,7 +1424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -1389,7 +1432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>31</v>
       </c>

--- a/Document/Player Action.xlsx
+++ b/Document/Player Action.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="82">
   <si>
     <t>Player</t>
   </si>
   <si>
-    <t>Defence</t>
-  </si>
-  <si>
     <t>Heal</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>PRITHVI</t>
   </si>
   <si>
-    <t>DYAUS</t>
-  </si>
-  <si>
     <t>Fire Blast</t>
   </si>
   <si>
@@ -128,12 +122,6 @@
     <t>Thunder Strom</t>
   </si>
   <si>
-    <t>Defend</t>
-  </si>
-  <si>
-    <t>plus 10 Def</t>
-  </si>
-  <si>
     <t>Run Away</t>
   </si>
   <si>
@@ -273,6 +261,15 @@
   </si>
   <si>
     <t>Prithvi</t>
+  </si>
+  <si>
+    <t>DAYUS</t>
+  </si>
+  <si>
+    <t>turn pass to next player</t>
+  </si>
+  <si>
+    <t>Idle</t>
   </si>
 </sst>
 </file>
@@ -735,7 +732,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,687 +754,687 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H4" s="3">
         <v>4</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D7" s="7">
         <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7">
         <v>4</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D9" s="10">
         <v>0</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H9" s="10">
         <v>0</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H10" s="10">
         <v>2</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="F11" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H11" s="10">
         <v>4</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H12" s="9">
         <v>0</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15" s="9">
         <v>3</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D16" s="6">
         <v>0</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H17" s="6">
         <v>2</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="11" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D19" s="11">
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="11">
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H20" s="11">
         <v>1</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
       <c r="B21" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D21" s="11">
         <v>1</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H21" s="11">
         <v>5</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25"/>
       <c r="B22" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D22" s="11">
         <v>3</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D23" s="12">
         <v>0</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H23" s="12">
         <v>0</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="12" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="12">
         <v>0</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H24" s="12">
         <v>5</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D25" s="12">
         <v>2</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D26" s="12">
         <v>4</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
         <v>30</v>
-      </c>
-      <c r="F36" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Player Action.xlsx
+++ b/Document/Player Action.xlsx
@@ -149,9 +149,6 @@
     <t>Heal all</t>
   </si>
   <si>
-    <t>plus 5 Def</t>
-  </si>
-  <si>
     <t>protect all allies against attacks</t>
   </si>
   <si>
@@ -270,6 +267,9 @@
   </si>
   <si>
     <t>Idle</t>
+  </si>
+  <si>
+    <t>plus 5 Def(self)</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,28 +778,28 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>11</v>
@@ -811,25 +811,25 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" s="5"/>
     </row>
@@ -839,25 +839,25 @@
         <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" s="3">
         <v>4</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -866,28 +866,28 @@
         <v>15</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>15</v>
@@ -902,22 +902,22 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -926,16 +926,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="7">
         <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -944,13 +944,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="7">
         <v>4</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -958,31 +958,31 @@
         <v>36</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="10">
         <v>0</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -994,22 +994,22 @@
         <v>0</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="10">
         <v>2</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1018,16 +1018,16 @@
         <v>18</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" s="10">
         <v>4</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -1035,31 +1035,31 @@
         <v>37</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1080,13 +1080,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1095,13 +1095,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="9">
         <v>3</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -1109,31 +1109,31 @@
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="6">
         <v>0</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1145,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="H17" s="6">
         <v>2</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1166,13 +1166,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="11" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -1180,31 +1180,31 @@
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="11">
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1216,22 +1216,22 @@
         <v>0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20" s="11">
         <v>1</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1240,25 +1240,25 @@
         <v>5</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="11">
         <v>1</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H21" s="11">
         <v>5</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1267,45 +1267,45 @@
         <v>33</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="11">
         <v>3</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="D23" s="12">
         <v>0</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>2</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H23" s="12">
         <v>0</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="12" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H24" s="12">
         <v>5</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1338,13 +1338,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="12">
         <v>2</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1353,13 +1353,13 @@
         <v>40</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="12">
         <v>4</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">

--- a/Document/Player Action.xlsx
+++ b/Document/Player Action.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="100">
   <si>
     <t>Player</t>
   </si>
@@ -270,6 +271,60 @@
   </si>
   <si>
     <t>plus 5 Def(self)</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>Ally</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>Ultimate Lightening</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Action on Ally</t>
+  </si>
+  <si>
+    <t>Spark</t>
+  </si>
+  <si>
+    <t>Lightening</t>
+  </si>
+  <si>
+    <t>Multi lightening</t>
+  </si>
+  <si>
+    <t>on weapon Spark</t>
+  </si>
+  <si>
+    <t>Health Potion</t>
+  </si>
+  <si>
+    <t>Sp Potion</t>
+  </si>
+  <si>
+    <t>Top of head Drinking Bottle With +health amount</t>
+  </si>
+  <si>
+    <t>Top of head Drinking Bottle With +Sp amount</t>
+  </si>
+  <si>
+    <t>Lightening Enhance</t>
+  </si>
+  <si>
+    <t>Agni (Karv)</t>
+  </si>
+  <si>
+    <t>Agni (Jata)</t>
   </si>
 </sst>
 </file>
@@ -405,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -448,6 +503,10 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Linked Cell" xfId="1" builtinId="24"/>
@@ -731,25 +790,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -773,7 +832,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
@@ -805,7 +864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -833,7 +892,7 @@
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>32</v>
@@ -861,7 +920,7 @@
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
@@ -893,7 +952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="7" t="s">
         <v>3</v>
@@ -920,7 +979,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="7" t="s">
         <v>1</v>
@@ -938,7 +997,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="7" t="s">
         <v>4</v>
@@ -953,7 +1012,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="10" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" s="10" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="18" t="s">
         <v>36</v>
       </c>
@@ -985,7 +1044,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="10" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -1012,7 +1071,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="F11" s="10" t="s">
         <v>18</v>
@@ -1030,7 +1089,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" s="9" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="20" t="s">
         <v>37</v>
       </c>
@@ -1062,7 +1121,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="9" t="s">
         <v>3</v>
@@ -1074,7 +1133,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
       <c r="B14" s="9" t="s">
         <v>7</v>
@@ -1089,7 +1148,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
       <c r="B15" s="9" t="s">
         <v>5</v>
@@ -1104,7 +1163,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
@@ -1136,7 +1195,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="6" t="s">
         <v>3</v>
@@ -1160,7 +1219,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="6" t="s">
         <v>10</v>
@@ -1175,7 +1234,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="11" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" s="11" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="24" t="s">
         <v>17</v>
       </c>
@@ -1207,7 +1266,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="11" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
       <c r="B20" s="11" t="s">
         <v>3</v>
@@ -1234,7 +1293,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="B21" s="11" t="s">
         <v>5</v>
@@ -1261,7 +1320,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="11" t="s">
         <v>33</v>
@@ -1276,7 +1335,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="26" t="s">
         <v>78</v>
       </c>
@@ -1308,7 +1367,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="12" t="s">
         <v>3</v>
@@ -1332,7 +1391,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="12" t="s">
         <v>6</v>
@@ -1347,7 +1406,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27"/>
       <c r="B26" s="12" t="s">
         <v>40</v>
@@ -1362,7 +1421,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="28" t="s">
         <v>20</v>
       </c>
@@ -1373,7 +1432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -1381,7 +1440,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>23</v>
       </c>
@@ -1389,7 +1448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>24</v>
       </c>
@@ -1397,7 +1456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>25</v>
       </c>
@@ -1405,7 +1464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>26</v>
       </c>
@@ -1413,7 +1472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>27</v>
       </c>
@@ -1421,7 +1480,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>28</v>
       </c>
@@ -1429,7 +1488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>29</v>
       </c>
@@ -1441,4 +1500,795 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.88671875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="26.88671875" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B1" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+    </row>
+    <row r="2" spans="1:17" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="L6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="3">
+        <v>5</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" s="7" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="7">
+        <v>4</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="10" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="10" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="10">
+        <v>2</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="L13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="10">
+        <v>4</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="9" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="9">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="6">
+        <v>2</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="11" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="11" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="11">
+        <v>1</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="N23" s="11">
+        <v>5</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="11">
+        <v>3</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="12" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N25" s="12">
+        <v>0</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="12" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
+      <c r="B26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N26" s="12">
+        <v>5</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27"/>
+      <c r="B27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="27"/>
+      <c r="B28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="12">
+        <v>4</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>